--- a/ExcelHelper/ExcelTables/Результаты.xlsx
+++ b/ExcelHelper/ExcelTables/Результаты.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1160A07B-83BC-482F-9ECE-59AAA8A0A745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="группа 3" sheetId="4" r:id="rId1"/>
-    <sheet name="группа 2" sheetId="3" r:id="rId2"/>
-    <sheet name="группа 1" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="тест2" sheetId="6" r:id="rId1"/>
+    <sheet name="Тест-1" sheetId="5" r:id="rId2"/>
+    <sheet name="группа 3" sheetId="4" r:id="rId3"/>
+    <sheet name="группа 2" sheetId="3" r:id="rId4"/>
+    <sheet name="группа 1" sheetId="2" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
   <si>
     <t>Имя</t>
   </si>
@@ -56,11 +59,26 @@
   <si>
     <t>vtoroklassnik1488</t>
   </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD5BA22-786B-4E46-9C01-AAFA7601FB5A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -398,19 +416,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -419,7 +437,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C4C649-BBFB-426B-B6F1-232E22FD716B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -448,8 +562,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -535,8 +649,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ExcelHelper/ExcelTables/Результаты.xlsx
+++ b/ExcelHelper/ExcelTables/Результаты.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1160A07B-83BC-482F-9ECE-59AAA8A0A745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7FE4A8-3EAB-4A6B-AC52-4AB7547EDD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="тест2" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>Имя</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>71</t>
+  </si>
+  <si>
+    <t>DanilaTest</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD5BA22-786B-4E46-9C01-AAFA7601FB5A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -438,9 +441,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C4C649-BBFB-426B-B6F1-232E22FD716B}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -477,6 +480,23 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
